--- a/medicine/Psychotrope/Valdiguié/Valdiguié.xlsx
+++ b/medicine/Psychotrope/Valdiguié/Valdiguié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valdigui%C3%A9</t>
+          <t>Valdiguié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le valdiguié N[1],[N 1], ou valdiguier, est un cépage originaire du sud-ouest de la France.
+Le valdiguié N,[N 1], ou valdiguier, est un cépage originaire du sud-ouest de la France.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valdigui%C3%A9</t>
+          <t>Valdiguié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il appartient à la famille des Cotoïdes, découvert parmi des lambrusques près de Puylaroque dans le Quercy par un dénommé Valdiguié. Comme le mérille N, il a été planté après le désastre du phylloxéra pour produire en quantité à la place du côt N et de la négrette N. Depuis les années 1950, il n'est plus planté et sa surface a considérablement réduit, passant de 4900 ha en 1958 à 150 ha en 1994[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appartient à la famille des Cotoïdes, découvert parmi des lambrusques près de Puylaroque dans le Quercy par un dénommé Valdiguié. Comme le mérille N, il a été planté après le désastre du phylloxéra pour produire en quantité à la place du côt N et de la négrette N. Depuis les années 1950, il n'est plus planté et sa surface a considérablement réduit, passant de 4900 ha en 1958 à 150 ha en 1994.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valdigui%C3%A9</t>
+          <t>Valdiguié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bourgeonnement cotonneux blanc à liseré rosé.
 Jeunes feuilles duveteuses jaunâtres en forme de cœur.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valdigui%C3%A9</t>
+          <t>Valdiguié</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>culturales : cépage érigé, fertile et productif, bien adapté à la taille courte.
 Sensibilité : il est peu sensible à la pourriture grise et à l'oïdium.
